--- a/biology/Zoologie/Chlorostrymon_maesites/Chlorostrymon_maesites.xlsx
+++ b/biology/Zoologie/Chlorostrymon_maesites/Chlorostrymon_maesites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostrymon maesites est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, sous-famille des Theclinae et du genre Chlorostrymon.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostrymon maesites a été décrit par Gottlieb August Wilhelm Herrich-Schäffer en 1864, sous le nom initial de Thecla maesites.
-Synonyme : Strymon maesites, Barnes &amp; McDunnough, 1917[1].
-Noms vernaculaires
-Chlorostrymon maesites se nomme Amethyst Hairstreak en anglais[1],[2].
+Synonyme : Strymon maesites, Barnes &amp; McDunnough, 1917.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chlorostrymon maesites est un petit papillon d'une envergure de 22 mm à 25 mm aux antennes annelées de noir et de blanc, avec une fine et longue queue à chaque aile postérieure[3].
-Le dessus du mâle est violet améthyste, celui de la femelle marron avec à chaque aile une plage bleu clair en triangle depuis la base.
-Le revers est jaune avec une ligne postmédiane marron et, aux ailes postérieures, une bande marginale et postmarginale formée de la confluence de gros ocelles surmontés de rouge.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon maesites se nomme Amethyst Hairstreak en anglais,.
 </t>
         </is>
       </c>
@@ -575,13 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chlorostrymon maesites vole de décembre à juillet en deux ou trois générations en Floride[3].
-Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon maesites est un petit papillon d'une envergure de 22 mm à 25 mm aux antennes annelées de noir et de blanc, avec une fine et longue queue à chaque aile postérieure.
+Le dessus du mâle est violet améthyste, celui de la femelle marron avec à chaque aile une plage bleu clair en triangle depuis la base.
+Le revers est jaune avec une ligne postmédiane marron et, aux ailes postérieures, une bande marginale et postmarginale formée de la confluence de gros ocelles surmontés de rouge.
+</t>
         </is>
       </c>
     </row>
@@ -606,15 +626,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon maesites vole de décembre à juillet en deux ou trois générations en Floride.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_maesites</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_maesites</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorostrymon maesites est présent dans le sud de la Floride, aux Bahamas, à la Jamaïque, en République dominicaine, à Porto Rico et à Cuba[1],[4].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon maesites est présent dans le sud de la Floride, aux Bahamas, à la Jamaïque, en République dominicaine, à Porto Rico et à Cuba,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_maesites</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_maesites</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
